--- a/571M-Project-Data.xlsx
+++ b/571M-Project-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\Documents\Jupyter Notebooks\radioml-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FD850F-96F3-4FBD-980A-95F231E09B11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97078797-34BD-4D12-A4DA-B79EAFA68AC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{84AE7105-D349-4274-A06A-09FE71E5FD3E}"/>
+    <workbookView xWindow="3975" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{84AE7105-D349-4274-A06A-09FE71E5FD3E}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN-1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Loss</t>
   </si>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>Custom Network based on 14</t>
+  </si>
+  <si>
+    <t>ANN-6</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>2 without norm</t>
+  </si>
+  <si>
+    <t>11 features</t>
+  </si>
+  <si>
+    <t>ANN-7</t>
+  </si>
+  <si>
+    <t>6 with C42 Norm</t>
+  </si>
+  <si>
+    <t>ANN-8</t>
+  </si>
+  <si>
+    <t>7 with fewer layers</t>
+  </si>
+  <si>
+    <t>ANN-9</t>
+  </si>
+  <si>
+    <t>8 with lower and wider layers</t>
+  </si>
+  <si>
+    <t>ANN-10</t>
+  </si>
+  <si>
+    <t>9 but even wider</t>
   </si>
 </sst>
 </file>
@@ -539,7 +575,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +822,21 @@
       <c r="E9">
         <v>0.34</v>
       </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
       <c r="P9">
         <v>7</v>
       </c>
@@ -809,6 +860,15 @@
       <c r="E10">
         <v>0.46410000000000001</v>
       </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
       <c r="P10">
         <v>8</v>
       </c>
@@ -832,6 +892,18 @@
       <c r="E11">
         <v>0.4919</v>
       </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
       <c r="P11">
         <v>9</v>
       </c>
@@ -855,6 +927,15 @@
       <c r="E12">
         <v>0.5141</v>
       </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
       <c r="P12">
         <v>10</v>
       </c>
@@ -877,6 +958,15 @@
       </c>
       <c r="E13">
         <v>0.50349999999999995</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
       </c>
       <c r="P13">
         <v>11</v>
